--- a/raw_data/20200818_saline/20200818_Sensor0_Test_10.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_10.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B085290-5D6D-4274-96CD-4CBD081DDC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>8102.848852</v>
+        <v>8102.8488520000001</v>
       </c>
       <c r="B2" s="1">
         <v>2.250791</v>
       </c>
       <c r="C2" s="1">
-        <v>901.000000</v>
+        <v>901</v>
       </c>
       <c r="D2" s="1">
-        <v>-190.030000</v>
+        <v>-190.03</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>8113.202869</v>
+        <v>8113.2028689999997</v>
       </c>
       <c r="G2" s="1">
-        <v>2.253667</v>
+        <v>2.2536670000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.903000</v>
+        <v>917.90300000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.120000</v>
+        <v>-161.12</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>8123.630728</v>
+        <v>8123.6307280000001</v>
       </c>
       <c r="L2" s="1">
         <v>2.256564</v>
       </c>
       <c r="M2" s="1">
-        <v>940.246000</v>
+        <v>940.24599999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.980000</v>
+        <v>-116.98</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>8133.783836</v>
+        <v>8133.7838359999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.259384</v>
+        <v>2.2593839999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>946.787000</v>
+        <v>946.78700000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.936000</v>
+        <v>-101.93600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>8144.315885</v>
       </c>
       <c r="V2" s="1">
-        <v>2.262310</v>
+        <v>2.2623099999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>953.397000</v>
+        <v>953.39700000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.776100</v>
+        <v>-88.7761</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>8155.366750</v>
+        <v>8155.3667500000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.265380</v>
+        <v>2.2653799999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.852000</v>
+        <v>960.85199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.741300</v>
+        <v>-79.741299999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>8165.952865</v>
+        <v>8165.9528650000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.268320</v>
+        <v>2.2683200000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.910000</v>
+        <v>965.91</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.524200</v>
+        <v>-79.524199999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8176.147140</v>
+        <v>8176.14714</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.271152</v>
+        <v>2.2711519999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.959000</v>
+        <v>973.95899999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.272100</v>
+        <v>-87.272099999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>8186.343397</v>
+        <v>8186.3433969999996</v>
       </c>
       <c r="AP2" s="1">
         <v>2.273984</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.213000</v>
+        <v>983.21299999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.161000</v>
+        <v>-102.161</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>8196.967207</v>
+        <v>8196.9672069999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.276935</v>
+        <v>2.2769349999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.573000</v>
+        <v>994.57299999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>8208.180760</v>
+        <v>8208.1807599999993</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.280050</v>
+        <v>2.2800500000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.256000</v>
+        <v>-142.256</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>8218.752988</v>
+        <v>8218.7529880000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.282987</v>
+        <v>2.2829869999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.511000</v>
+        <v>-226.511</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>8229.781563</v>
+        <v>8229.7815630000005</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.286050</v>
+        <v>2.2860499999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.067000</v>
+        <v>-362.06700000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>8240.243646</v>
+        <v>8240.2436460000008</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.288957</v>
+        <v>2.2889569999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1258.230000</v>
+        <v>1258.23</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-572.202000</v>
+        <v>-572.202</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>8250.564402</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.291823</v>
+        <v>2.2918229999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1405.570000</v>
+        <v>1405.57</v>
       </c>
       <c r="BV2" s="1">
-        <v>-797.121000</v>
+        <v>-797.12099999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>8261.643042</v>
+        <v>8261.6430419999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.294901</v>
+        <v>2.2949009999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1567.080000</v>
+        <v>1567.08</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1031.620000</v>
+        <v>-1031.6199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>8272.633428</v>
+        <v>8272.6334279999992</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.297954</v>
+        <v>2.2979539999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1976.420000</v>
+        <v>1976.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1577.950000</v>
+        <v>-1577.95</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>8103.241683</v>
+        <v>8103.2416830000002</v>
       </c>
       <c r="B3" s="1">
-        <v>2.250900</v>
+        <v>2.2509000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>900.945000</v>
+        <v>900.94500000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-190.004000</v>
+        <v>-190.00399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>8113.548085</v>
+        <v>8113.5480850000004</v>
       </c>
       <c r="G3" s="1">
-        <v>2.253763</v>
+        <v>2.2537630000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>917.945000</v>
+        <v>917.94500000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.395000</v>
+        <v>-161.39500000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>8123.999256</v>
+        <v>8123.9992560000001</v>
       </c>
       <c r="L3" s="1">
-        <v>2.256666</v>
+        <v>2.2566660000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>940.111000</v>
+        <v>940.11099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.759000</v>
+        <v>-116.759</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>8134.422219</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.259562</v>
+        <v>2.2595619999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>946.847000</v>
+        <v>946.84699999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.969000</v>
+        <v>-101.96899999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>8144.950304</v>
@@ -798,13 +1214,13 @@
         <v>2.262486</v>
       </c>
       <c r="W3" s="1">
-        <v>953.429000</v>
+        <v>953.42899999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.757500</v>
+        <v>-88.757499999999993</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>8155.793807</v>
@@ -813,43 +1229,43 @@
         <v>2.265498</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.837000</v>
+        <v>960.83699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.776400</v>
+        <v>-79.776399999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>8166.356608</v>
+        <v>8166.3566080000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.268432</v>
+        <v>2.2684319999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.924000</v>
+        <v>965.92399999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.471600</v>
+        <v>-79.471599999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>8176.492850</v>
+        <v>8176.4928499999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.271248</v>
+        <v>2.2712479999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.978000</v>
+        <v>973.97799999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.262300</v>
+        <v>-87.262299999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>8186.740229</v>
@@ -858,1782 +1274,1782 @@
         <v>2.274095</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.206000</v>
+        <v>983.20600000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>8197.388807</v>
+        <v>8197.3888069999994</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.277052</v>
+        <v>2.2770519999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.603000</v>
+        <v>994.60299999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.645000</v>
+        <v>-123.645</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>8208.600904</v>
+        <v>8208.6009040000008</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.280167</v>
+        <v>2.2801670000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.262000</v>
+        <v>-142.262</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>8219.217776</v>
+        <v>8219.2177759999995</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.283116</v>
+        <v>2.2831160000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>8229.891180</v>
+        <v>8229.8911800000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.286081</v>
+        <v>2.2860809999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.065000</v>
+        <v>-362.065</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>8240.676158</v>
+        <v>8240.6761580000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.289077</v>
+        <v>2.2890769999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-572.234000</v>
+        <v>-572.23400000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>8251.016087</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.291949</v>
+        <v>2.2919489999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1405.600000</v>
+        <v>1405.6</v>
       </c>
       <c r="BV3" s="1">
-        <v>-797.194000</v>
+        <v>-797.19399999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>8262.128130</v>
+        <v>8262.1281299999991</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.295036</v>
+        <v>2.2950360000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1567.200000</v>
+        <v>1567.2</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1031.640000</v>
+        <v>-1031.6400000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>8273.224131</v>
+        <v>8273.2241310000009</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.298118</v>
+        <v>2.2981180000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1978.500000</v>
+        <v>1978.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1577.980000</v>
+        <v>-1577.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>8103.581444</v>
+        <v>8103.5814440000004</v>
       </c>
       <c r="B4" s="1">
-        <v>2.250995</v>
+        <v>2.2509950000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>901.185000</v>
+        <v>901.18499999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.901000</v>
+        <v>-189.90100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>8113.894261</v>
+        <v>8113.8942610000004</v>
       </c>
       <c r="G4" s="1">
-        <v>2.253860</v>
+        <v>2.25386</v>
       </c>
       <c r="H4" s="1">
-        <v>917.815000</v>
+        <v>917.81500000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.670000</v>
+        <v>-161.66999999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>8124.641575</v>
+        <v>8124.6415749999996</v>
       </c>
       <c r="L4" s="1">
-        <v>2.256845</v>
+        <v>2.2568450000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>940.149000</v>
+        <v>940.149</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.674000</v>
+        <v>-116.67400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>8134.820473</v>
+        <v>8134.8204729999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.259672</v>
+        <v>2.2596720000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.821000</v>
+        <v>946.82100000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>8145.346112</v>
+        <v>8145.3461120000002</v>
       </c>
       <c r="V4" s="1">
-        <v>2.262596</v>
+        <v>2.2625959999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>953.455000</v>
+        <v>953.45500000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.767200</v>
+        <v>-88.767200000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>8156.143027</v>
+        <v>8156.1430270000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.265595</v>
+        <v>2.2655949999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.914000</v>
+        <v>960.91399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.758500</v>
+        <v>-79.758499999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>8166.695375</v>
+        <v>8166.6953750000002</v>
       </c>
       <c r="AF4" s="1">
         <v>2.268526</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.909000</v>
+        <v>965.90899999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.457800</v>
+        <v>-79.457800000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>8176.844513</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.271346</v>
+        <v>2.2713459999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.958000</v>
+        <v>973.95799999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.303900</v>
+        <v>-87.303899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>8187.138564</v>
+        <v>8187.1385639999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.274205</v>
+        <v>2.2742049999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.205000</v>
+        <v>983.20500000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>8197.804247</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.277168</v>
+        <v>2.2771680000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.585000</v>
+        <v>994.58500000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>8208.899986</v>
+        <v>8208.8999860000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.280250</v>
+        <v>2.2802500000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.256000</v>
+        <v>-142.256</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>8219.487595</v>
+        <v>8219.4875950000005</v>
       </c>
       <c r="BE4" s="1">
         <v>2.283191</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.523000</v>
+        <v>-226.523</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>8230.266619</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.286185</v>
+        <v>2.2861850000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.053000</v>
+        <v>-362.053</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>8241.097757</v>
+        <v>8241.0977569999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.289194</v>
+        <v>2.2891940000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-572.233000</v>
+        <v>-572.23299999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>8251.441823</v>
+        <v>8251.4418229999992</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.292067</v>
+        <v>2.2920669999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1405.520000</v>
+        <v>1405.52</v>
       </c>
       <c r="BV4" s="1">
-        <v>-797.272000</v>
+        <v>-797.27200000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>8262.578001</v>
+        <v>8262.5780009999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.295161</v>
+        <v>2.2951609999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1567.200000</v>
+        <v>1567.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1031.600000</v>
+        <v>-1031.5999999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>8273.757329</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.298266</v>
+        <v>2.2982659999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1976.600000</v>
+        <v>1976.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1577.570000</v>
+        <v>-1577.57</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>8104.231202</v>
+        <v>8104.2312019999999</v>
       </c>
       <c r="B5" s="1">
-        <v>2.251175</v>
+        <v>2.2511749999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>900.987000</v>
+        <v>900.98699999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.965000</v>
+        <v>-189.965</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>8114.541044</v>
+        <v>8114.5410439999996</v>
       </c>
       <c r="G5" s="1">
-        <v>2.254039</v>
+        <v>2.2540390000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.176000</v>
+        <v>918.17600000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.321000</v>
+        <v>-161.321</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>8125.035398</v>
       </c>
       <c r="L5" s="1">
-        <v>2.256954</v>
+        <v>2.2569539999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>940.141000</v>
+        <v>940.14099999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.645000</v>
+        <v>-116.645</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>8135.165689</v>
+        <v>8135.1656890000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.259768</v>
+        <v>2.2597680000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>946.842000</v>
+        <v>946.84199999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.991000</v>
+        <v>-101.991</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>8145.689803</v>
+        <v>8145.6898030000002</v>
       </c>
       <c r="V5" s="1">
-        <v>2.262692</v>
+        <v>2.2626919999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>953.400000</v>
+        <v>953.4</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.798900</v>
+        <v>-88.798900000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>8156.491404</v>
+        <v>8156.4914040000003</v>
       </c>
       <c r="AA5" s="1">
         <v>2.265692</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.913000</v>
+        <v>960.91300000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.705300</v>
+        <v>-79.705299999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>8167.039599</v>
+        <v>8167.0395989999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.268622</v>
+        <v>2.2686220000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.915000</v>
+        <v>965.91499999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.498500</v>
+        <v>-79.498500000000007</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>8177.251233</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.271459</v>
+        <v>2.2714590000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.955000</v>
+        <v>973.95500000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.289000</v>
+        <v>-87.289000000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>8187.459929</v>
+        <v>8187.4599289999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.274294</v>
+        <v>2.2742939999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.182000</v>
+        <v>983.18200000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.240000</v>
+        <v>-102.24</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>8198.114455</v>
+        <v>8198.1144550000008</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.277254</v>
+        <v>2.2772540000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.592000</v>
+        <v>994.59199999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>8209.258104</v>
+        <v>8209.2581040000005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.280349</v>
+        <v>2.2803490000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.233000</v>
+        <v>-142.233</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>8219.849643</v>
+        <v>8219.8496429999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.283292</v>
+        <v>2.2832919999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.517000</v>
+        <v>-226.517</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>8230.640603</v>
+        <v>8230.6406029999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>2.286289</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.044000</v>
+        <v>-362.04399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>8241.501500</v>
+        <v>8241.5015000000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.289306</v>
+        <v>2.2893059999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-572.249000</v>
+        <v>-572.24900000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>8251.867888</v>
+        <v>8251.8678880000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.292186</v>
+        <v>2.2921860000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1405.480000</v>
+        <v>1405.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-797.323000</v>
+        <v>-797.32299999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>8262.998112</v>
+        <v>8262.9981119999993</v>
       </c>
       <c r="BY5" s="1">
         <v>2.295277</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1567.120000</v>
+        <v>1567.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1031.630000</v>
+        <v>-1031.6300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>8274.276642</v>
+        <v>8274.2766420000007</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.298410</v>
+        <v>2.2984100000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1976.490000</v>
+        <v>1976.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1579.080000</v>
+        <v>-1579.08</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>8104.608657</v>
+        <v>8104.6086569999998</v>
       </c>
       <c r="B6" s="1">
-        <v>2.251280</v>
+        <v>2.2512799999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>901.104000</v>
+        <v>901.10400000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.963000</v>
+        <v>-189.96299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>8114.933876</v>
+        <v>8114.9338760000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2.254148</v>
+        <v>2.2541479999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>917.985000</v>
+        <v>917.98500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.677000</v>
+        <v>-161.67699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>8125.382133</v>
+        <v>8125.3821330000001</v>
       </c>
       <c r="L6" s="1">
-        <v>2.257051</v>
+        <v>2.2570510000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.153000</v>
+        <v>940.15300000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.586000</v>
+        <v>-116.586</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>8135.516858</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.259866</v>
+        <v>2.2598660000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>946.815000</v>
+        <v>946.81500000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.010000</v>
+        <v>-102.01</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>8146.036048</v>
+        <v>8146.0360479999999</v>
       </c>
       <c r="V6" s="1">
         <v>2.262788</v>
       </c>
       <c r="W6" s="1">
-        <v>953.432000</v>
+        <v>953.43200000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.838100</v>
+        <v>-88.838099999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>8156.900380</v>
+        <v>8156.90038</v>
       </c>
       <c r="AA6" s="1">
         <v>2.265806</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.811000</v>
+        <v>960.81100000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.732700</v>
+        <v>-79.732699999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>8167.470624</v>
+        <v>8167.4706239999996</v>
       </c>
       <c r="AF6" s="1">
         <v>2.268742</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.895000</v>
+        <v>965.89499999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.474400</v>
+        <v>-79.474400000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>8177.543411</v>
+        <v>8177.5434109999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.271540</v>
+        <v>2.2715399999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.974000</v>
+        <v>973.97400000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.309500</v>
+        <v>-87.3095</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>8187.820982</v>
+        <v>8187.8209820000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.274395</v>
+        <v>2.2743950000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.204000</v>
+        <v>983.20399999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8198.481030</v>
+        <v>8198.4810300000008</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.277356</v>
+        <v>2.2773560000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.595000</v>
+        <v>994.59500000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>8209.617672</v>
+        <v>8209.6176720000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.280449</v>
+        <v>2.2804489999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.253000</v>
+        <v>-142.25299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>8220.570824</v>
+        <v>8220.5708240000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.283492</v>
+        <v>2.2834919999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.485000</v>
+        <v>-226.48500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>8231.391579</v>
+        <v>8231.3915789999992</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.286498</v>
+        <v>2.2864979999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.093000</v>
+        <v>-362.09300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>8241.913707</v>
+        <v>8241.9137069999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.289420</v>
+        <v>2.2894199999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-572.275000</v>
+        <v>-572.27499999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>8252.271137</v>
+        <v>8252.2711369999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.292298</v>
+        <v>2.2922980000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1405.420000</v>
+        <v>1405.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-797.449000</v>
+        <v>-797.44899999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>8263.420704</v>
+        <v>8263.4207040000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.295395</v>
+        <v>2.2953950000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1567.150000</v>
+        <v>1567.15</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1031.660000</v>
+        <v>-1031.6600000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>8275.099504</v>
+        <v>8275.0995039999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.298639</v>
+        <v>2.2986390000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1978.120000</v>
+        <v>1978.12</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1579.190000</v>
+        <v>-1579.19</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>8104.950898</v>
+        <v>8104.9508980000001</v>
       </c>
       <c r="B7" s="1">
-        <v>2.251375</v>
+        <v>2.2513749999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>901.029000</v>
+        <v>901.029</v>
       </c>
       <c r="D7" s="1">
-        <v>-190.119000</v>
+        <v>-190.119</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>8115.261236</v>
+        <v>8115.2612360000003</v>
       </c>
       <c r="G7" s="1">
-        <v>2.254239</v>
+        <v>2.2542390000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.719000</v>
+        <v>917.71900000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.667000</v>
+        <v>-161.667</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>8125.726821</v>
+        <v>8125.7268210000002</v>
       </c>
       <c r="L7" s="1">
-        <v>2.257146</v>
+        <v>2.2571460000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.171000</v>
+        <v>940.17100000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.694000</v>
+        <v>-116.694</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>8135.930552</v>
+        <v>8135.9305519999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.259981</v>
+        <v>2.2599809999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>946.798000</v>
+        <v>946.798</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.982000</v>
+        <v>-101.982</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>8146.445707</v>
+        <v>8146.4457069999999</v>
       </c>
       <c r="V7" s="1">
         <v>2.262902</v>
       </c>
       <c r="W7" s="1">
-        <v>953.438000</v>
+        <v>953.43799999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.773100</v>
+        <v>-88.773099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>8157.194540</v>
+        <v>8157.1945400000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.265887</v>
+        <v>2.2658870000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.860000</v>
+        <v>960.86</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.723200</v>
+        <v>-79.723200000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>8167.734990</v>
+        <v>8167.7349899999999</v>
       </c>
       <c r="AF7" s="1">
         <v>2.268815</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.913000</v>
+        <v>965.91300000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.476100</v>
+        <v>-79.476100000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>8177.892096</v>
+        <v>8177.8920959999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.271637</v>
+        <v>2.2716370000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.981000</v>
+        <v>973.98099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.287300</v>
+        <v>-87.287300000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>8188.179588</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.274494</v>
+        <v>2.2744939999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.218000</v>
+        <v>983.21799999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>8198.847540</v>
+        <v>8198.8475400000007</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.277458</v>
+        <v>2.2774580000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.587000</v>
+        <v>994.58699999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>8210.337399</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.280649</v>
+        <v>2.2806489999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.260000</v>
+        <v>-142.26</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>8220.959719</v>
+        <v>8220.9597190000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.283600</v>
+        <v>2.2835999999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.529000</v>
+        <v>-226.529</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>8231.769993</v>
+        <v>8231.7699929999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.286603</v>
+        <v>2.2866029999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.065000</v>
+        <v>-362.065</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>8242.310506</v>
+        <v>8242.3105059999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.289531</v>
+        <v>2.2895310000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-572.238000</v>
+        <v>-572.23800000000006</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>8252.685821</v>
+        <v>8252.6858209999991</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.292413</v>
+        <v>2.2924129999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1405.410000</v>
+        <v>1405.41</v>
       </c>
       <c r="BV7" s="1">
-        <v>-797.525000</v>
+        <v>-797.52499999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>8264.149359</v>
+        <v>8264.1493589999991</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.295597</v>
+        <v>2.2955969999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1567.180000</v>
+        <v>1567.18</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1031.620000</v>
+        <v>-1031.6199999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>8275.344031</v>
+        <v>8275.3440310000005</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.298707</v>
+        <v>2.2987069999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1977.590000</v>
+        <v>1977.59</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1577.680000</v>
+        <v>-1577.68</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>8105.289664</v>
+        <v>8105.2896639999999</v>
       </c>
       <c r="B8" s="1">
-        <v>2.251469</v>
+        <v>2.2514690000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>901.039000</v>
+        <v>901.03899999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.956000</v>
+        <v>-189.95599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>8115.616899</v>
+        <v>8115.6168989999996</v>
       </c>
       <c r="G8" s="1">
-        <v>2.254338</v>
+        <v>2.2543380000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>917.918000</v>
+        <v>917.91800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.352000</v>
+        <v>-161.352</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>8126.148917</v>
+        <v>8126.1489170000004</v>
       </c>
       <c r="L8" s="1">
-        <v>2.257264</v>
+        <v>2.2572640000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>940.310000</v>
+        <v>940.31</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.652000</v>
+        <v>-116.652</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>8136.215721</v>
+        <v>8136.2157209999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.260060</v>
+        <v>2.2600600000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>946.827000</v>
+        <v>946.827</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.955000</v>
+        <v>-101.955</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>8146.742810</v>
+        <v>8146.7428099999997</v>
       </c>
       <c r="V8" s="1">
-        <v>2.262984</v>
+        <v>2.2629839999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.438000</v>
+        <v>953.43799999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.884000</v>
+        <v>-88.884</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>8157.541232</v>
+        <v>8157.5412319999996</v>
       </c>
       <c r="AA8" s="1">
         <v>2.265984</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.764000</v>
+        <v>960.76400000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.707800</v>
+        <v>-79.707800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>8168.078221</v>
+        <v>8168.0782209999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.268911</v>
+        <v>2.2689110000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.932000</v>
+        <v>965.93200000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.483600</v>
+        <v>-79.483599999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>8178.241249</v>
+        <v>8178.2412489999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.271734</v>
+        <v>2.2717339999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.943000</v>
+        <v>973.94299999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.275000</v>
+        <v>-87.275000000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>8188.906723</v>
+        <v>8188.9067230000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.274696</v>
+        <v>2.2746960000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.210000</v>
+        <v>983.21</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.220000</v>
+        <v>-102.22</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>8199.585133</v>
+        <v>8199.5851330000005</v>
       </c>
       <c r="AU8" s="1">
         <v>2.277663</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.588000</v>
+        <v>994.58799999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.639000</v>
+        <v>-123.639</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>8210.724277</v>
+        <v>8210.7242769999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.280757</v>
+        <v>2.2807569999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.241000</v>
+        <v>-142.24100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>8221.340151</v>
+        <v>8221.3401510000003</v>
       </c>
       <c r="BE8" s="1">
         <v>2.283706</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.519000</v>
+        <v>-226.51900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>8232.140505</v>
+        <v>8232.1405049999994</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.286706</v>
+        <v>2.2867060000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.085000</v>
+        <v>-362.08499999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>8243.034635</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.289732</v>
+        <v>2.2897319999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-572.252000</v>
+        <v>-572.25199999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>8253.475420</v>
+        <v>8253.4754200000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.292632</v>
+        <v>2.2926319999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1405.170000</v>
+        <v>1405.17</v>
       </c>
       <c r="BV8" s="1">
-        <v>-797.425000</v>
+        <v>-797.42499999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>8264.264399</v>
+        <v>8264.2643989999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.295629</v>
+        <v>2.2956289999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1567.240000</v>
+        <v>1567.24</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1031.630000</v>
+        <v>-1031.6300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>8275.879711</v>
+        <v>8275.8797109999996</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.298855</v>
+        <v>2.2988550000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1976.370000</v>
+        <v>1976.37</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1579.310000</v>
+        <v>-1579.31</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>8105.706305</v>
+        <v>8105.7063049999997</v>
       </c>
       <c r="B9" s="1">
-        <v>2.251585</v>
+        <v>2.2515849999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>900.940000</v>
+        <v>900.94</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.887000</v>
+        <v>-189.887</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>8116.032552</v>
+        <v>8116.0325519999997</v>
       </c>
       <c r="G9" s="1">
-        <v>2.254453</v>
+        <v>2.2544529999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>917.924000</v>
+        <v>917.92399999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.528000</v>
+        <v>-161.52799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>8126.418244</v>
+        <v>8126.4182440000004</v>
       </c>
       <c r="L9" s="1">
-        <v>2.257338</v>
+        <v>2.2573379999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>940.208000</v>
+        <v>940.20799999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.605000</v>
+        <v>-116.605</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>8136.563415</v>
+        <v>8136.5634149999996</v>
       </c>
       <c r="Q9" s="1">
         <v>2.260157</v>
       </c>
       <c r="R9" s="1">
-        <v>946.829000</v>
+        <v>946.82899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.953000</v>
+        <v>-101.953</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>8147.086537</v>
+        <v>8147.0865370000001</v>
       </c>
       <c r="V9" s="1">
-        <v>2.263080</v>
+        <v>2.26308</v>
       </c>
       <c r="W9" s="1">
-        <v>953.454000</v>
+        <v>953.45399999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.826300</v>
+        <v>-88.826300000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>8157.892417</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.266081</v>
+        <v>2.2660809999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.787000</v>
+        <v>960.78700000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.816500</v>
+        <v>-79.816500000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>8168.763724</v>
+        <v>8168.7637240000004</v>
       </c>
       <c r="AF9" s="1">
         <v>2.269101</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.931000</v>
+        <v>965.93100000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.454000</v>
+        <v>-79.453999999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>8178.938623</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.271927</v>
+        <v>2.2719269999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.952000</v>
+        <v>973.952</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.301700</v>
+        <v>-87.301699999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>8189.285169</v>
+        <v>8189.2851689999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.274801</v>
+        <v>2.2748010000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.206000</v>
+        <v>983.20600000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.235000</v>
+        <v>-102.235</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>8199.965523</v>
+        <v>8199.9655230000008</v>
       </c>
       <c r="AU9" s="1">
         <v>2.277768</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.574000</v>
+        <v>994.57399999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>8211.082356</v>
+        <v>8211.0823560000008</v>
       </c>
       <c r="AZ9" s="1">
         <v>2.280856</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.249000</v>
+        <v>-142.249</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>8222.004262</v>
+        <v>8222.0042620000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.283890</v>
+        <v>2.28389</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.503000</v>
+        <v>-226.50299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>8232.819068</v>
+        <v>8232.8190680000007</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.286894</v>
+        <v>2.2868940000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.097000</v>
+        <v>-362.09699999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>8243.146730</v>
+        <v>8243.1467300000004</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.289763</v>
+        <v>2.2897630000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1258.290000</v>
+        <v>1258.29</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-572.250000</v>
+        <v>-572.25</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>8253.945132</v>
+        <v>8253.9451320000007</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.292763</v>
+        <v>2.2927629999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1405.140000</v>
+        <v>1405.14</v>
       </c>
       <c r="BV9" s="1">
-        <v>-797.485000</v>
+        <v>-797.48500000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>8264.700382</v>
+        <v>8264.7003820000009</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.295750</v>
+        <v>2.29575</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1567.070000</v>
+        <v>1567.07</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1031.620000</v>
+        <v>-1031.6199999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>8276.414895</v>
+        <v>8276.4148949999999</v>
       </c>
       <c r="CD9" s="1">
         <v>2.299004</v>
       </c>
       <c r="CE9" s="1">
-        <v>1978.510000</v>
+        <v>1978.51</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1578.790000</v>
+        <v>-1578.79</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>8105.978111</v>
+        <v>8105.9781110000004</v>
       </c>
       <c r="B10" s="1">
-        <v>2.251661</v>
+        <v>2.2516609999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>901.068000</v>
+        <v>901.06799999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.995000</v>
+        <v>-189.995</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>8116.309283</v>
+        <v>8116.3092829999996</v>
       </c>
       <c r="G10" s="1">
-        <v>2.254530</v>
+        <v>2.2545299999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.722000</v>
+        <v>917.72199999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.953000</v>
+        <v>-161.953</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>8126.764483</v>
+        <v>8126.7644829999999</v>
       </c>
       <c r="L10" s="1">
-        <v>2.257435</v>
+        <v>2.2574350000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>940.283000</v>
+        <v>940.28300000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.803000</v>
+        <v>-116.803</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>8136.909127</v>
+        <v>8136.9091269999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.260253</v>
+        <v>2.2602530000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>946.827000</v>
+        <v>946.827</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.980000</v>
+        <v>-101.98</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>8147.430265</v>
       </c>
       <c r="V10" s="1">
-        <v>2.263175</v>
+        <v>2.2631749999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.404000</v>
+        <v>953.404</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.844400</v>
+        <v>-88.844399999999993</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>8158.587276</v>
+        <v>8158.5872760000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.266274</v>
+        <v>2.2662740000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.829000</v>
+        <v>960.82899999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.812600</v>
+        <v>-79.812600000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>8169.106924</v>
+        <v>8169.1069239999997</v>
       </c>
       <c r="AF10" s="1">
         <v>2.269196</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.933000</v>
+        <v>965.93299999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.439300</v>
+        <v>-79.439300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>8179.286814</v>
@@ -2642,799 +3058,799 @@
         <v>2.272024</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.964000</v>
+        <v>973.96400000000006</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.307200</v>
+        <v>-87.307199999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>8189.644273</v>
+        <v>8189.6442729999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.274901</v>
+        <v>2.2749009999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.195000</v>
+        <v>983.19500000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>8200.332563</v>
+        <v>8200.3325629999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.277870</v>
+        <v>2.2778700000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.563000</v>
+        <v>994.56299999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>8211.750005</v>
+        <v>8211.7500049999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.281042</v>
+        <v>2.2810419999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.249000</v>
+        <v>-142.249</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>8222.424870</v>
+        <v>8222.4248700000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.284007</v>
+        <v>2.2840069999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.520000</v>
+        <v>-226.52</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>8232.929143</v>
+        <v>8232.9291429999994</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.286925</v>
+        <v>2.2869250000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.102000</v>
+        <v>-362.10199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>8243.550475</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.289875</v>
+        <v>2.2898749999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-572.265000</v>
+        <v>-572.26499999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>8254.371691</v>
+        <v>8254.3716910000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.292881</v>
+        <v>2.2928809999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1405.090000</v>
+        <v>1405.09</v>
       </c>
       <c r="BV10" s="1">
-        <v>-797.499000</v>
+        <v>-797.49900000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>8265.157197</v>
+        <v>8265.1571970000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.295877</v>
+        <v>2.2958769999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1567.140000</v>
+        <v>1567.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1031.790000</v>
+        <v>-1031.79</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>8276.956029</v>
+        <v>8276.9560290000009</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.299154</v>
+        <v>2.2991540000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1975.810000</v>
+        <v>1975.81</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1578.090000</v>
+        <v>-1578.09</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>8106.320351</v>
+        <v>8106.3203510000003</v>
       </c>
       <c r="B11" s="1">
-        <v>2.251756</v>
+        <v>2.2517559999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>901.135000</v>
+        <v>901.13499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.976000</v>
+        <v>-189.976</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>8116.648545</v>
       </c>
       <c r="G11" s="1">
-        <v>2.254625</v>
+        <v>2.2546249999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>918.060000</v>
+        <v>918.06</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.484000</v>
+        <v>-161.48400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>8127.108213</v>
+        <v>8127.1082130000004</v>
       </c>
       <c r="L11" s="1">
-        <v>2.257530</v>
+        <v>2.25753</v>
       </c>
       <c r="M11" s="1">
-        <v>940.187000</v>
+        <v>940.18700000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.633000</v>
+        <v>-116.633</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>8137.608027</v>
+        <v>8137.6080270000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.260447</v>
+        <v>2.2604470000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>946.819000</v>
+        <v>946.81899999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.003000</v>
+        <v>-102.003</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>8148.117752</v>
+        <v>8148.1177520000001</v>
       </c>
       <c r="V11" s="1">
         <v>2.263366</v>
       </c>
       <c r="W11" s="1">
-        <v>953.364000</v>
+        <v>953.36400000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.811500</v>
+        <v>-88.811499999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>8158.938970</v>
+        <v>8158.9389700000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.266372</v>
+        <v>2.2663720000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.822000</v>
+        <v>960.822</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.735800</v>
+        <v>-79.735799999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>8169.452635</v>
+        <v>8169.4526349999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.269292</v>
+        <v>2.2692920000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.893000</v>
+        <v>965.89300000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.465300</v>
+        <v>-79.465299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8179.633551</v>
+        <v>8179.6335509999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.272120</v>
+        <v>2.2721200000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.967000</v>
+        <v>973.96699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.292000</v>
+        <v>-87.292000000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>8190.309409</v>
+        <v>8190.3094090000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.275086</v>
+        <v>2.2750859999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.201000</v>
+        <v>983.20100000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>8201.001709</v>
+        <v>8201.0017090000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.278056</v>
+        <v>2.2780559999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.602000</v>
+        <v>994.60199999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>8212.189924</v>
+        <v>8212.1899240000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>2.281164</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.231000</v>
+        <v>-142.23099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>8222.816214</v>
+        <v>8222.8162140000004</v>
       </c>
       <c r="BE11" s="1">
         <v>2.284116</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.508000</v>
+        <v>-226.50800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>8233.297671</v>
+        <v>8233.2976710000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.287027</v>
+        <v>2.2870270000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.870000</v>
+        <v>1127.8699999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.085000</v>
+        <v>-362.08499999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>8243.945291</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.289985</v>
+        <v>2.2899850000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-572.285000</v>
+        <v>-572.28499999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>8254.795276</v>
+        <v>8254.7952760000007</v>
       </c>
       <c r="BT11" s="1">
         <v>2.292999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="BV11" s="1">
-        <v>-797.346000</v>
+        <v>-797.346</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>8265.603100</v>
+        <v>8265.6031000000003</v>
       </c>
       <c r="BY11" s="1">
         <v>2.296001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1567.230000</v>
+        <v>1567.23</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1031.620000</v>
+        <v>-1031.6199999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>8277.497661</v>
+        <v>8277.4976609999994</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.299305</v>
+        <v>2.2993049999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1579.690000</v>
+        <v>-1579.69</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>8106.663582</v>
+        <v>8106.6635820000001</v>
       </c>
       <c r="B12" s="1">
-        <v>2.251851</v>
+        <v>2.2518509999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>901.191000</v>
+        <v>901.19100000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-190.117000</v>
+        <v>-190.11699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>8117.339970</v>
+        <v>8117.33997</v>
       </c>
       <c r="G12" s="1">
-        <v>2.254817</v>
+        <v>2.2548170000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.015000</v>
+        <v>918.01499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.631000</v>
+        <v>-161.631</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>8127.801122</v>
+        <v>8127.8011219999999</v>
       </c>
       <c r="L12" s="1">
-        <v>2.257723</v>
+        <v>2.2577229999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>940.207000</v>
+        <v>940.20699999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.577000</v>
+        <v>-116.577</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>8137.955190</v>
+        <v>8137.9551899999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.260543</v>
+        <v>2.2605430000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>946.826000</v>
+        <v>946.82600000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>8148.460455</v>
+        <v>8148.4604550000004</v>
       </c>
       <c r="V12" s="1">
-        <v>2.263461</v>
+        <v>2.2634609999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.434000</v>
+        <v>953.43399999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.894200</v>
+        <v>-88.894199999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>8159.284649</v>
+        <v>8159.2846490000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.266468</v>
+        <v>2.2664680000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.879000</v>
+        <v>960.87900000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.807200</v>
+        <v>-79.807199999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>8170.099453</v>
+        <v>8170.0994529999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.269472</v>
+        <v>2.2694719999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.881000</v>
+        <v>965.88099999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.451900</v>
+        <v>-79.451899999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>8180.290221</v>
+        <v>8180.2902210000002</v>
       </c>
       <c r="AK12" s="1">
         <v>2.272303</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.971000</v>
+        <v>973.971</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.276100</v>
+        <v>-87.2761</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>8190.725056</v>
+        <v>8190.7250560000002</v>
       </c>
       <c r="AP12" s="1">
         <v>2.275201</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.196000</v>
+        <v>983.19600000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>8201.456497</v>
+        <v>8201.4564969999992</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.278182</v>
+        <v>2.2781820000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.592000</v>
+        <v>994.59199999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>8212.552002</v>
+        <v>8212.5520020000004</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.281264</v>
+        <v>2.2812640000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.260000</v>
+        <v>-142.26</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>8223.176805</v>
+        <v>8223.1768049999991</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.284216</v>
+        <v>2.2842159999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.542000</v>
+        <v>-226.542</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>8233.671654</v>
+        <v>8233.6716539999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>2.287131</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.101000</v>
+        <v>-362.101</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>8244.368407</v>
+        <v>8244.3684069999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.290102</v>
+        <v>2.2901020000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-572.299000</v>
+        <v>-572.29899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>8255.211450</v>
+        <v>8255.2114500000007</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.293114</v>
+        <v>2.2931140000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1404.960000</v>
+        <v>1404.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-797.293000</v>
+        <v>-797.29300000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>8266.023249</v>
+        <v>8266.0232489999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.296118</v>
+        <v>2.2961179999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1567.210000</v>
+        <v>1567.21</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1031.720000</v>
+        <v>-1031.72</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>8278.027884</v>
+        <v>8278.0278839999992</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.299452</v>
+        <v>2.2994520000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1977.690000</v>
+        <v>1977.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1577.660000</v>
+        <v>-1577.66</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>8107.347597</v>
       </c>
       <c r="B13" s="1">
-        <v>2.252041</v>
+        <v>2.2520410000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>901.000000</v>
+        <v>901</v>
       </c>
       <c r="D13" s="1">
-        <v>-190.007000</v>
+        <v>-190.00700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>8117.684193</v>
+        <v>8117.6841930000001</v>
       </c>
       <c r="G13" s="1">
         <v>2.254912</v>
       </c>
       <c r="H13" s="1">
-        <v>917.732000</v>
+        <v>917.73199999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.421000</v>
+        <v>-161.42099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>8128.143331</v>
+        <v>8128.1433310000002</v>
       </c>
       <c r="L13" s="1">
-        <v>2.257818</v>
+        <v>2.2578179999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.251000</v>
+        <v>940.25099999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.783000</v>
+        <v>-116.783</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>8138.304405</v>
+        <v>8138.3044049999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.260640</v>
+        <v>2.26064</v>
       </c>
       <c r="R13" s="1">
-        <v>946.791000</v>
+        <v>946.79100000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.995000</v>
+        <v>-101.995</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>8148.803231</v>
+        <v>8148.8032309999999</v>
       </c>
       <c r="V13" s="1">
-        <v>2.263556</v>
+        <v>2.2635559999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>953.392000</v>
+        <v>953.39200000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.822500</v>
+        <v>-88.822500000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>8159.942840</v>
+        <v>8159.9428399999997</v>
       </c>
       <c r="AA13" s="1">
         <v>2.266651</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.897000</v>
+        <v>960.89700000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.676100</v>
+        <v>-79.676100000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>8170.478364</v>
+        <v>8170.4783639999996</v>
       </c>
       <c r="AF13" s="1">
         <v>2.269577</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.928000</v>
+        <v>965.928</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.476700</v>
+        <v>-79.476699999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>8180.678589</v>
+        <v>8180.6785890000001</v>
       </c>
       <c r="AK13" s="1">
         <v>2.272411</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.972000</v>
+        <v>973.97199999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.276400</v>
+        <v>-87.276399999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>8191.108463</v>
+        <v>8191.1084629999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.275308</v>
+        <v>2.2753079999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.192000</v>
+        <v>983.19200000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>8201.829033</v>
@@ -3443,1887 +3859,1887 @@
         <v>2.278286</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.589000</v>
+        <v>994.58900000000006</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>8212.909650</v>
+        <v>8212.9096499999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.281364</v>
+        <v>2.2813639999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.259000</v>
+        <v>-142.25899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>8223.585524</v>
+        <v>8223.5855240000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.284329</v>
+        <v>2.2843290000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>8234.080854</v>
+        <v>8234.0808539999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>2.287245</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.075000</v>
+        <v>-362.07499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>8244.758728</v>
+        <v>8244.7587280000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.290211</v>
+        <v>2.2902110000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-572.263000</v>
+        <v>-572.26300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>8255.639466</v>
+        <v>8255.6394660000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.293233</v>
+        <v>2.2932329999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="BV13" s="1">
-        <v>-797.262000</v>
+        <v>-797.26199999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>8266.443820</v>
+        <v>8266.4438200000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.296234</v>
+        <v>2.2962340000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1567.220000</v>
+        <v>1567.22</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1031.680000</v>
+        <v>-1031.68</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>8278.577451</v>
+        <v>8278.5774509999992</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.299605</v>
+        <v>2.2996050000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1976.070000</v>
+        <v>1976.07</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1578.880000</v>
+        <v>-1578.88</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>8107.688850</v>
+        <v>8107.6888499999995</v>
       </c>
       <c r="B14" s="1">
-        <v>2.252136</v>
+        <v>2.2521360000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>900.932000</v>
+        <v>900.93200000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-190.300000</v>
+        <v>-190.3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8118.032881</v>
+        <v>8118.0328810000001</v>
       </c>
       <c r="G14" s="1">
-        <v>2.255009</v>
+        <v>2.2550089999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>917.744000</v>
+        <v>917.74400000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.315000</v>
+        <v>-161.315</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>8128.492017</v>
+        <v>8128.4920169999996</v>
       </c>
       <c r="L14" s="1">
         <v>2.257914</v>
       </c>
       <c r="M14" s="1">
-        <v>940.042000</v>
+        <v>940.04200000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.680000</v>
+        <v>-116.68</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>8138.959094</v>
+        <v>8138.9590939999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.260822</v>
+        <v>2.2608220000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.857000</v>
+        <v>946.85699999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.944000</v>
+        <v>-101.944</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>8149.467334</v>
+        <v>8149.4673339999999</v>
       </c>
       <c r="V14" s="1">
         <v>2.263741</v>
       </c>
       <c r="W14" s="1">
-        <v>953.422000</v>
+        <v>953.42200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.836300</v>
+        <v>-88.836299999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>8160.331705</v>
+        <v>8160.3317049999996</v>
       </c>
       <c r="AA14" s="1">
         <v>2.266759</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.851000</v>
+        <v>960.851</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.758800</v>
+        <v>-79.758799999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>8170.834030</v>
+        <v>8170.83403</v>
       </c>
       <c r="AF14" s="1">
         <v>2.269676</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.882000</v>
+        <v>965.88199999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.473300</v>
+        <v>-79.473299999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>8181.030252</v>
+        <v>8181.0302519999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.272508</v>
+        <v>2.2725080000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.952000</v>
+        <v>973.952</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.300400</v>
+        <v>-87.300399999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>8191.469086</v>
+        <v>8191.4690860000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.275408</v>
+        <v>2.2754080000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.208000</v>
+        <v>983.20799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.241000</v>
+        <v>-102.241</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>8202.187601</v>
+        <v>8202.1876009999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.278385</v>
+        <v>2.2783850000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.565000</v>
+        <v>994.56500000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>8213.321297</v>
+        <v>8213.3212970000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.281478</v>
+        <v>2.2814779999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.238000</v>
+        <v>-142.238</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>8223.897988</v>
+        <v>8223.8979880000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.284416</v>
+        <v>2.2844159999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.520000</v>
+        <v>-226.52</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>8234.423590</v>
+        <v>8234.4235900000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.287340</v>
+        <v>2.2873399999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.079000</v>
+        <v>-362.07900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>8245.173423</v>
+        <v>8245.1734230000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.290326</v>
+        <v>2.2903259999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1258.230000</v>
+        <v>1258.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-572.243000</v>
+        <v>-572.24300000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>8256.053657</v>
+        <v>8256.0536570000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.293348</v>
+        <v>2.2933479999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1404.900000</v>
+        <v>1404.9</v>
       </c>
       <c r="BV14" s="1">
-        <v>-797.219000</v>
+        <v>-797.21900000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>8266.874384</v>
+        <v>8266.8743840000006</v>
       </c>
       <c r="BY14" s="1">
         <v>2.296354</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1567.160000</v>
+        <v>1567.16</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1031.750000</v>
+        <v>-1031.75</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>8279.115643</v>
+        <v>8279.1156429999992</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.299754</v>
+        <v>2.2997540000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1978.280000</v>
+        <v>1978.28</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1578.950000</v>
+        <v>-1578.95</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>8108.033036</v>
+        <v>8108.0330359999998</v>
       </c>
       <c r="B15" s="1">
-        <v>2.252231</v>
+        <v>2.2522310000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>901.165000</v>
+        <v>901.16499999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-190.066000</v>
+        <v>-190.066</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>8118.684656</v>
+        <v>8118.6846560000004</v>
       </c>
       <c r="G15" s="1">
-        <v>2.255190</v>
+        <v>2.2551899999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>917.839000</v>
+        <v>917.83900000000006</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.838000</v>
+        <v>-161.83799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>8129.141313</v>
+        <v>8129.1413130000001</v>
       </c>
       <c r="L15" s="1">
         <v>2.258095</v>
       </c>
       <c r="M15" s="1">
-        <v>940.377000</v>
+        <v>940.37699999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.745000</v>
+        <v>-116.745</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>8139.350468</v>
+        <v>8139.3504679999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.260931</v>
+        <v>2.2609309999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>946.823000</v>
+        <v>946.82299999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.991000</v>
+        <v>-101.991</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>8149.835365</v>
+        <v>8149.8353649999999</v>
       </c>
       <c r="V15" s="1">
         <v>2.263843</v>
       </c>
       <c r="W15" s="1">
-        <v>953.373000</v>
+        <v>953.37300000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.901300</v>
+        <v>-88.901300000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>8160.679927</v>
+        <v>8160.6799270000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.266856</v>
+        <v>2.2668560000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.841000</v>
+        <v>960.84100000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.774200</v>
+        <v>-79.774199999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>8171.180737</v>
+        <v>8171.1807369999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.269772</v>
+        <v>2.2697720000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.917000</v>
+        <v>965.91700000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.509600</v>
+        <v>-79.509600000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>8181.377484</v>
+        <v>8181.3774839999996</v>
       </c>
       <c r="AK15" s="1">
         <v>2.272605</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.956000</v>
+        <v>973.95600000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.274200</v>
+        <v>-87.274199999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>8191.884222</v>
+        <v>8191.8842219999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.275523</v>
+        <v>2.2755230000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.176000</v>
+        <v>983.17600000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.245000</v>
+        <v>-102.245</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>8202.924159</v>
+        <v>8202.9241590000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.278590</v>
+        <v>2.2785899999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.591000</v>
+        <v>994.59100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>8213.626374</v>
+        <v>8213.6263739999995</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.281563</v>
+        <v>2.2815629999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.170000</v>
+        <v>1004.17</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.265000</v>
+        <v>-142.26499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>8224.258580</v>
+        <v>8224.2585799999997</v>
       </c>
       <c r="BE15" s="1">
         <v>2.284516</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.510000</v>
+        <v>-226.51</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>8234.806501</v>
+        <v>8234.8065009999991</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.287446</v>
+        <v>2.2874460000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.086000</v>
+        <v>-362.08600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>8245.582593</v>
+        <v>8245.5825929999992</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.290440</v>
+        <v>2.2904399999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-572.231000</v>
+        <v>-572.23099999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>8256.485144</v>
+        <v>8256.4851440000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.293468</v>
+        <v>2.2934679999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1404.900000</v>
+        <v>1404.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-797.080000</v>
+        <v>-797.08</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>8267.289530</v>
+        <v>8267.28953</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.296469</v>
+        <v>2.2964690000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1567.310000</v>
+        <v>1567.31</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1031.590000</v>
+        <v>-1031.5899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>8279.657274</v>
+        <v>8279.6572739999992</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.299905</v>
+        <v>2.2999049999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1976.890000</v>
+        <v>1976.89</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1577.650000</v>
+        <v>-1577.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>8108.678332</v>
+        <v>8108.6783320000004</v>
       </c>
       <c r="B16" s="1">
-        <v>2.252411</v>
+        <v>2.2524109999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>901.010000</v>
+        <v>901.01</v>
       </c>
       <c r="D16" s="1">
-        <v>-190.085000</v>
+        <v>-190.08500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>8119.070014</v>
+        <v>8119.0700139999999</v>
       </c>
       <c r="G16" s="1">
-        <v>2.255297</v>
+        <v>2.2552970000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.017000</v>
+        <v>918.01700000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.539000</v>
+        <v>-161.53899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>8129.531136</v>
+        <v>8129.5311359999996</v>
       </c>
       <c r="L16" s="1">
         <v>2.258203</v>
       </c>
       <c r="M16" s="1">
-        <v>940.094000</v>
+        <v>940.09400000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.528000</v>
+        <v>-116.52800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>8139.700611</v>
+        <v>8139.7006110000002</v>
       </c>
       <c r="Q16" s="1">
         <v>2.261028</v>
       </c>
       <c r="R16" s="1">
-        <v>946.831000</v>
+        <v>946.83100000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.983000</v>
+        <v>-101.983</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>8150.178101</v>
+        <v>8150.1781010000004</v>
       </c>
       <c r="V16" s="1">
         <v>2.263938</v>
       </c>
       <c r="W16" s="1">
-        <v>953.388000</v>
+        <v>953.38800000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.830100</v>
+        <v>-88.830100000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>8161.029110</v>
+        <v>8161.0291100000004</v>
       </c>
       <c r="AA16" s="1">
         <v>2.266953</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.791000</v>
+        <v>960.79100000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.754500</v>
+        <v>-79.754499999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>8171.606273</v>
+        <v>8171.6062730000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.269891</v>
+        <v>2.2698909999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.906000</v>
+        <v>965.90599999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.473300</v>
+        <v>-79.473299999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>8181.805882</v>
+        <v>8181.8058819999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.272724</v>
+        <v>2.2727240000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.967000</v>
+        <v>973.96699999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.314300</v>
+        <v>-87.314300000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>8192.189777</v>
+        <v>8192.1897769999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.275608</v>
+        <v>2.2756080000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.196000</v>
+        <v>983.19600000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>8203.303820</v>
+        <v>8203.3038199999992</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.278696</v>
+        <v>2.2786960000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.586000</v>
+        <v>994.58600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>8213.985937</v>
+        <v>8213.9859369999995</v>
       </c>
       <c r="AZ16" s="1">
         <v>2.281663</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.170000</v>
+        <v>1004.17</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.242000</v>
+        <v>-142.24199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>8224.622643</v>
+        <v>8224.6226430000006</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.284617</v>
+        <v>2.2846169999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.509000</v>
+        <v>-226.50899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>8235.194901</v>
+        <v>8235.1949010000008</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.287554</v>
+        <v>2.2875540000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.820000</v>
+        <v>1127.82</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.093000</v>
+        <v>-362.09300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>8246.004684</v>
+        <v>8246.0046839999995</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.290557</v>
+        <v>2.2905570000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-572.260000</v>
+        <v>-572.26</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>8256.912727</v>
+        <v>8256.9127270000008</v>
       </c>
       <c r="BT16" s="1">
         <v>2.293587</v>
       </c>
       <c r="BU16" s="1">
-        <v>1404.880000</v>
+        <v>1404.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-797.018000</v>
+        <v>-797.01800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>8267.742842</v>
+        <v>8267.7428419999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.296595</v>
+        <v>2.2965949999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1567.130000</v>
+        <v>1567.13</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1031.650000</v>
+        <v>-1031.6500000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>8280.194907</v>
+        <v>8280.1949069999991</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.300054</v>
+        <v>2.3000539999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1976.930000</v>
+        <v>1976.93</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1579.630000</v>
+        <v>-1579.63</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>8109.054299</v>
+        <v>8109.0542990000004</v>
       </c>
       <c r="B17" s="1">
-        <v>2.252515</v>
+        <v>2.2525149999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>901.097000</v>
+        <v>901.09699999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.993000</v>
+        <v>-189.99299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>8119.414269</v>
+        <v>8119.4142689999999</v>
       </c>
       <c r="G17" s="1">
-        <v>2.255393</v>
+        <v>2.2553930000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>917.628000</v>
+        <v>917.62800000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.675000</v>
+        <v>-161.67500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>8129.873377</v>
+        <v>8129.8733769999999</v>
       </c>
       <c r="L17" s="1">
-        <v>2.258298</v>
+        <v>2.2582979999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.009000</v>
+        <v>940.00900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.858000</v>
+        <v>-116.858</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>8140.047347</v>
+        <v>8140.0473469999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.261124</v>
+        <v>2.2611240000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.806000</v>
+        <v>946.80600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.977000</v>
+        <v>-101.977</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>8150.530758</v>
+        <v>8150.5307579999999</v>
       </c>
       <c r="V17" s="1">
-        <v>2.264036</v>
+        <v>2.2640359999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>953.402000</v>
+        <v>953.40200000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.838700</v>
+        <v>-88.838700000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>8161.439270</v>
+        <v>8161.4392699999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.267066</v>
+        <v>2.2670659999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.851000</v>
+        <v>960.851</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.828400</v>
+        <v>-79.828400000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>8171.883529</v>
+        <v>8171.8835289999997</v>
       </c>
       <c r="AF17" s="1">
         <v>2.269968</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.927000</v>
+        <v>965.92700000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.499500</v>
+        <v>-79.499499999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>8182.086235</v>
+        <v>8182.0862349999998</v>
       </c>
       <c r="AK17" s="1">
         <v>2.272802</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.957000</v>
+        <v>973.95699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.292400</v>
+        <v>-87.292400000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>8192.548877</v>
+        <v>8192.5488769999993</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.275708</v>
+        <v>2.2757079999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.199000</v>
+        <v>983.19899999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>8203.669646</v>
+        <v>8203.6696460000003</v>
       </c>
       <c r="AU17" s="1">
         <v>2.278797</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.583000</v>
+        <v>994.58299999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>8214.346032</v>
+        <v>8214.3460319999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.281763</v>
+        <v>2.2817630000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.251000</v>
+        <v>-142.251</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>8225.342834</v>
+        <v>8225.3428339999991</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.284817</v>
+        <v>2.2848169999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.526000</v>
+        <v>-226.52600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>8235.944856</v>
+        <v>8235.9448560000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.287762</v>
+        <v>2.2877619999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.870000</v>
+        <v>1127.8699999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.091000</v>
+        <v>-362.09100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>8246.398997</v>
+        <v>8246.3989970000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.290666</v>
+        <v>2.2906659999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-572.292000</v>
+        <v>-572.29200000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>8257.319946</v>
+        <v>8257.3199459999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.293700</v>
+        <v>2.2936999999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1405.040000</v>
+        <v>1405.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-796.916000</v>
+        <v>-796.91600000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>8268.192750</v>
+        <v>8268.1927500000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.296720</v>
+        <v>2.2967200000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1567.120000</v>
+        <v>1567.12</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1031.830000</v>
+        <v>-1031.83</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>8281.036120</v>
+        <v>8281.0361200000007</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.300288</v>
+        <v>2.3002880000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1976.710000</v>
+        <v>1976.71</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1577.960000</v>
+        <v>-1577.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>8109.398524</v>
+        <v>8109.3985240000002</v>
       </c>
       <c r="B18" s="1">
-        <v>2.252611</v>
+        <v>2.2526109999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>901.161000</v>
+        <v>901.16099999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>-190.139000</v>
+        <v>-190.13900000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>8119.759453</v>
+        <v>8119.7594529999997</v>
       </c>
       <c r="G18" s="1">
-        <v>2.255489</v>
+        <v>2.2554889999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.547000</v>
+        <v>918.54700000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.241000</v>
+        <v>-162.24100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>8130.220079</v>
+        <v>8130.2200789999997</v>
       </c>
       <c r="L18" s="1">
         <v>2.258394</v>
       </c>
       <c r="M18" s="1">
-        <v>940.085000</v>
+        <v>940.08500000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.697000</v>
+        <v>-116.697</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>8140.459296</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.261239</v>
+        <v>2.2612390000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>946.792000</v>
+        <v>946.79200000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.974000</v>
+        <v>-101.974</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>8151.216229</v>
+        <v>8151.2162289999997</v>
       </c>
       <c r="V18" s="1">
         <v>2.264227</v>
       </c>
       <c r="W18" s="1">
-        <v>953.398000</v>
+        <v>953.39800000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.802300</v>
+        <v>-88.802300000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>8161.736871</v>
+        <v>8161.7368710000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.267149</v>
+        <v>2.2671489999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.815000</v>
+        <v>960.81500000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.772300</v>
+        <v>-79.772300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>8172.226761</v>
+        <v>8172.2267609999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.270063</v>
+        <v>2.2700629999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.927000</v>
+        <v>965.92700000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.452400</v>
+        <v>-79.452399999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>8182.436907</v>
+        <v>8182.4369070000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.272899</v>
+        <v>2.2728989999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.974000</v>
+        <v>973.97400000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.292000</v>
+        <v>-87.292000000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>8192.910429</v>
+        <v>8192.9104289999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.275808</v>
+        <v>2.2758080000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.218000</v>
+        <v>983.21799999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.253000</v>
+        <v>-102.253</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>8204.397802</v>
+        <v>8204.3978019999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.278999</v>
+        <v>2.2789990000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.605000</v>
+        <v>994.60500000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>8215.061296</v>
+        <v>8215.0612959999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.281961</v>
+        <v>2.2819609999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.268000</v>
+        <v>-142.268</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>8225.732721</v>
+        <v>8225.7327210000003</v>
       </c>
       <c r="BE18" s="1">
         <v>2.284926</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.535000</v>
+        <v>-226.535</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>8236.348068</v>
+        <v>8236.3480679999993</v>
       </c>
       <c r="BJ18" s="1">
         <v>2.287874</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.830000</v>
+        <v>1127.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.094000</v>
+        <v>-362.09399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>8246.794806</v>
+        <v>8246.7948059999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.290776</v>
+        <v>2.2907760000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1258.230000</v>
+        <v>1258.23</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-572.282000</v>
+        <v>-572.28200000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>8258.059479</v>
+        <v>8258.0594789999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.293905</v>
+        <v>2.2939050000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1404.970000</v>
+        <v>1404.97</v>
       </c>
       <c r="BV18" s="1">
-        <v>-796.882000</v>
+        <v>-796.88199999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>8268.957544</v>
+        <v>8268.9575440000008</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.296933</v>
+        <v>2.2969330000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1567.300000</v>
+        <v>1567.3</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1031.740000</v>
+        <v>-1031.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>8281.274200</v>
+        <v>8281.2741999999998</v>
       </c>
       <c r="CD18" s="1">
         <v>2.300354</v>
       </c>
       <c r="CE18" s="1">
-        <v>1976.410000</v>
+        <v>1976.41</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1578.030000</v>
+        <v>-1578.03</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>8109.741755</v>
       </c>
       <c r="B19" s="1">
-        <v>2.252706</v>
+        <v>2.2527059999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>901.175000</v>
+        <v>901.17499999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.977000</v>
+        <v>-189.977</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>8120.178573</v>
+        <v>8120.1785730000001</v>
       </c>
       <c r="G19" s="1">
-        <v>2.255605</v>
+        <v>2.2556050000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>917.942000</v>
+        <v>917.94200000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.821000</v>
+        <v>-161.821</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>8130.648164</v>
+        <v>8130.6481640000002</v>
       </c>
       <c r="L19" s="1">
-        <v>2.258513</v>
+        <v>2.2585130000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.188000</v>
+        <v>940.18799999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.571000</v>
+        <v>-116.571</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>8140.755105</v>
+        <v>8140.7551050000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.261321</v>
+        <v>2.2613210000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.801000</v>
+        <v>946.80100000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.975000</v>
+        <v>-101.97499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>8151.561939</v>
+        <v>8151.5619390000002</v>
       </c>
       <c r="V19" s="1">
-        <v>2.264323</v>
+        <v>2.2643230000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.425000</v>
+        <v>953.42499999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.749200</v>
+        <v>-88.749200000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>8162.086582</v>
+        <v>8162.0865819999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.267246</v>
+        <v>2.2672460000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.829000</v>
+        <v>960.82899999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.755000</v>
+        <v>-79.754999999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>8172.569510</v>
+        <v>8172.5695100000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.270158</v>
+        <v>2.2701579999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.947000</v>
+        <v>965.947</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.481000</v>
+        <v>-79.480999999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8182.784634</v>
+        <v>8182.7846339999996</v>
       </c>
       <c r="AK19" s="1">
         <v>2.272996</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.957000</v>
+        <v>973.95699999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.285200</v>
+        <v>-87.285200000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>8193.627671</v>
+        <v>8193.6276710000002</v>
       </c>
       <c r="AP19" s="1">
         <v>2.276008</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.209000</v>
+        <v>983.20899999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>8204.790109</v>
+        <v>8204.7901089999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.279108</v>
+        <v>2.2791079999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.576000</v>
+        <v>994.57600000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.653000</v>
+        <v>-123.65300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>8215.423380</v>
+        <v>8215.4233800000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.282062</v>
+        <v>2.2820619999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.170000</v>
+        <v>1004.17</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.239000</v>
+        <v>-142.239</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>8226.125521</v>
+        <v>8226.1255209999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.285035</v>
+        <v>2.2850350000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.528000</v>
+        <v>-226.52799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>8237.017666</v>
+        <v>8237.0176659999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.288060</v>
+        <v>2.2880600000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.103000</v>
+        <v>-362.10300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>8247.514501</v>
+        <v>8247.5145009999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.290976</v>
+        <v>2.2909760000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-572.244000</v>
+        <v>-572.24400000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>8258.179974</v>
+        <v>8258.1799740000006</v>
       </c>
       <c r="BT19" s="1">
         <v>2.293939</v>
       </c>
       <c r="BU19" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="BV19" s="1">
-        <v>-796.875000</v>
+        <v>-796.875</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>8269.099933</v>
+        <v>8269.0999329999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.296972</v>
+        <v>2.2969719999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1567.220000</v>
+        <v>1567.22</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1031.690000</v>
+        <v>-1031.69</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>8281.795523</v>
+        <v>8281.7955230000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.300499</v>
+        <v>2.3004989999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1976.550000</v>
+        <v>1976.55</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1579.540000</v>
+        <v>-1579.54</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>8110.162167</v>
+        <v>8110.1621670000004</v>
       </c>
       <c r="B20" s="1">
-        <v>2.252823</v>
+        <v>2.2528229999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>901.273000</v>
+        <v>901.27300000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-190.027000</v>
+        <v>-190.02699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>8120.457356</v>
+        <v>8120.4573559999999</v>
       </c>
       <c r="G20" s="1">
-        <v>2.255683</v>
+        <v>2.2556829999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>918.107000</v>
+        <v>918.10699999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.695000</v>
+        <v>-161.69499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>8130.932372</v>
+        <v>8130.9323720000002</v>
       </c>
       <c r="L20" s="1">
-        <v>2.258592</v>
+        <v>2.2585920000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>940.230000</v>
+        <v>940.23</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.621000</v>
+        <v>-116.621</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>8141.100353</v>
+        <v>8141.1003529999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.261417</v>
+        <v>2.2614169999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>946.821000</v>
+        <v>946.82100000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.954000</v>
+        <v>-101.95399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>8151.906691</v>
+        <v>8151.9066910000001</v>
       </c>
       <c r="V20" s="1">
-        <v>2.264419</v>
+        <v>2.2644190000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>953.414000</v>
+        <v>953.41399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.823900</v>
+        <v>-88.823899999999995</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>8162.433748</v>
+        <v>8162.4337480000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.267343</v>
+        <v>2.2673429999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.845000</v>
+        <v>960.84500000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.723400</v>
+        <v>-79.723399999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>8173.256455</v>
+        <v>8173.2564549999997</v>
       </c>
       <c r="AF20" s="1">
         <v>2.270349</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.906000</v>
+        <v>965.90599999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.462600</v>
+        <v>-79.462599999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>8183.486937</v>
+        <v>8183.4869369999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.273191</v>
+        <v>2.2731910000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.964000</v>
+        <v>973.96400000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.289300</v>
+        <v>-87.289299999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>8193.987963</v>
+        <v>8193.9879629999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.276108</v>
+        <v>2.2761079999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.204000</v>
+        <v>983.20399999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.242000</v>
+        <v>-102.242</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>8205.153759</v>
+        <v>8205.1537590000007</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.279209</v>
+        <v>2.2792089999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.591000</v>
+        <v>994.59100000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.634000</v>
+        <v>-123.634</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>8215.779471</v>
+        <v>8215.7794709999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.282161</v>
+        <v>2.2821609999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.277000</v>
+        <v>-142.27699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>8226.802561</v>
+        <v>8226.8025610000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.285223</v>
+        <v>2.2852229999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.537000</v>
+        <v>-226.53700000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>8237.130258</v>
+        <v>8237.1302579999992</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.288092</v>
+        <v>2.2880919999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.840000</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.122000</v>
+        <v>-362.12200000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>8247.631093</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.291009</v>
+        <v>2.2910089999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-572.272000</v>
+        <v>-572.27200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>8258.594134</v>
+        <v>8258.5941340000008</v>
       </c>
       <c r="BT20" s="1">
         <v>2.294054</v>
       </c>
       <c r="BU20" s="1">
-        <v>1405.200000</v>
+        <v>1405.2</v>
       </c>
       <c r="BV20" s="1">
-        <v>-796.748000</v>
+        <v>-796.74800000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>8269.518521</v>
@@ -5332,1572 +5748,1573 @@
         <v>2.297088</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1567.190000</v>
+        <v>1567.19</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1031.630000</v>
+        <v>-1031.6300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>8282.313522</v>
+        <v>8282.3135220000004</v>
       </c>
       <c r="CD20" s="1">
         <v>2.300643</v>
       </c>
       <c r="CE20" s="1">
-        <v>1976.440000</v>
+        <v>1976.44</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1579.470000</v>
+        <v>-1579.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>8110.442138</v>
+        <v>8110.4421380000003</v>
       </c>
       <c r="B21" s="1">
         <v>2.252901</v>
       </c>
       <c r="C21" s="1">
-        <v>900.973000</v>
+        <v>900.97299999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-190.134000</v>
+        <v>-190.13399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>8120.799564</v>
+        <v>8120.7995639999999</v>
       </c>
       <c r="G21" s="1">
-        <v>2.255778</v>
+        <v>2.2557779999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>918.053000</v>
+        <v>918.053</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.226000</v>
+        <v>-161.226</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>8131.281518</v>
+        <v>8131.2815179999998</v>
       </c>
       <c r="L21" s="1">
-        <v>2.258689</v>
+        <v>2.2586889999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.318000</v>
+        <v>940.31799999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.612000</v>
+        <v>-116.61199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>8141.454476</v>
+        <v>8141.4544759999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.261515</v>
+        <v>2.2615150000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>946.830000</v>
+        <v>946.83</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.992000</v>
+        <v>-101.992</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>8152.594610</v>
+        <v>8152.5946100000001</v>
       </c>
       <c r="V21" s="1">
-        <v>2.264610</v>
+        <v>2.2646099999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>953.478000</v>
+        <v>953.47799999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.794900</v>
+        <v>-88.794899999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>8163.132116</v>
+        <v>8163.1321159999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.267537</v>
+        <v>2.2675369999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.844000</v>
+        <v>960.84400000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.735500</v>
+        <v>-79.735500000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>8173.602662</v>
+        <v>8173.6026620000002</v>
       </c>
       <c r="AF21" s="1">
         <v>2.270445</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.894000</v>
+        <v>965.89400000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.486400</v>
+        <v>-79.486400000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>8183.820746</v>
+        <v>8183.8207460000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.273284</v>
+        <v>2.2732839999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.963000</v>
+        <v>973.96299999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.263500</v>
+        <v>-87.263499999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>8194.348859</v>
+        <v>8194.3488589999997</v>
       </c>
       <c r="AP21" s="1">
         <v>2.276208</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.192000</v>
+        <v>983.19200000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.253000</v>
+        <v>-102.253</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>8205.819820</v>
+        <v>8205.8198200000006</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.279394</v>
+        <v>2.2793939999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.590000</v>
+        <v>994.59</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>8216.443150</v>
+        <v>8216.4431499999992</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.282345</v>
+        <v>2.2823449999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.170000</v>
+        <v>1004.17</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.253000</v>
+        <v>-142.25299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>8227.239535</v>
+        <v>8227.2395350000006</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.285344</v>
+        <v>2.2853439999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.521000</v>
+        <v>-226.52099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>8237.498817</v>
+        <v>8237.4988169999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.288194</v>
+        <v>2.2881939999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.870000</v>
+        <v>1127.8699999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.092000</v>
+        <v>-362.09199999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>8248.035301</v>
+        <v>8248.0353009999999</v>
       </c>
       <c r="BO21" s="1">
         <v>2.291121</v>
       </c>
       <c r="BP21" s="1">
-        <v>1258.290000</v>
+        <v>1258.29</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-572.297000</v>
+        <v>-572.29700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>8259.023701</v>
+        <v>8259.0237010000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.294173</v>
+        <v>2.2941729999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1405.240000</v>
+        <v>1405.24</v>
       </c>
       <c r="BV21" s="1">
-        <v>-796.869000</v>
+        <v>-796.86900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>8269.940648</v>
+        <v>8269.9406479999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.297206</v>
+        <v>2.2972060000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1567.230000</v>
+        <v>1567.23</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1031.830000</v>
+        <v>-1031.83</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>8282.863465</v>
+        <v>8282.8634650000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.300795</v>
+        <v>2.3007949999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1976.850000</v>
+        <v>1976.85</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1577.890000</v>
+        <v>-1577.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>8110.782361</v>
+        <v>8110.7823609999996</v>
       </c>
       <c r="B22" s="1">
-        <v>2.252995</v>
+        <v>2.2529949999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>901.037000</v>
+        <v>901.03700000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-190.095000</v>
+        <v>-190.095</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>8121.145275</v>
+        <v>8121.1452749999999</v>
       </c>
       <c r="G22" s="1">
-        <v>2.255874</v>
+        <v>2.2558739999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>918.054000</v>
+        <v>918.05399999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.943000</v>
+        <v>-161.94300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>8131.626237</v>
+        <v>8131.6262370000004</v>
       </c>
       <c r="L22" s="1">
         <v>2.258785</v>
       </c>
       <c r="M22" s="1">
-        <v>940.307000</v>
+        <v>940.30700000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.563000</v>
+        <v>-116.563</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>8142.147376</v>
+        <v>8142.1473759999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.261708</v>
+        <v>2.2617080000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>946.835000</v>
+        <v>946.83500000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.996000</v>
+        <v>-101.996</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>8152.936850</v>
+        <v>8152.93685</v>
       </c>
       <c r="V22" s="1">
-        <v>2.264705</v>
+        <v>2.2647050000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>953.361000</v>
+        <v>953.36099999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.814600</v>
+        <v>-88.814599999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>8163.483285</v>
+        <v>8163.4832850000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.267634</v>
+        <v>2.2676340000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.771000</v>
+        <v>960.77099999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.715700</v>
+        <v>-79.715699999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>8173.944437</v>
+        <v>8173.9444370000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.270540</v>
+        <v>2.27054</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.908000</v>
+        <v>965.90800000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.485000</v>
+        <v>-79.484999999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>8184.167944</v>
+        <v>8184.1679439999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.273380</v>
+        <v>2.27338</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.953000</v>
+        <v>973.95299999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.282500</v>
+        <v>-87.282499999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>8195.007546</v>
+        <v>8195.0075460000007</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.276391</v>
+        <v>2.2763909999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.177000</v>
+        <v>983.17700000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.243000</v>
+        <v>-102.24299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>8206.283067</v>
+        <v>8206.2830670000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.279523</v>
+        <v>2.2795230000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.570000</v>
+        <v>994.57</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>8216.887570</v>
+        <v>8216.8875700000008</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.282469</v>
+        <v>2.2824689999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.254000</v>
+        <v>-142.25399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>8227.602608</v>
+        <v>8227.6026079999992</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.285445</v>
+        <v>2.2854450000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.528000</v>
+        <v>-226.52799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>8237.874258</v>
+        <v>8237.8742579999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.288298</v>
+        <v>2.2882980000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.081000</v>
+        <v>-362.08100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>8248.433249</v>
+        <v>8248.4332489999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.291231</v>
+        <v>2.2912309999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1258.290000</v>
+        <v>1258.29</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-572.289000</v>
+        <v>-572.28899999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>8259.451750</v>
+        <v>8259.4517500000002</v>
       </c>
       <c r="BT22" s="1">
         <v>2.294292</v>
       </c>
       <c r="BU22" s="1">
-        <v>1405.330000</v>
+        <v>1405.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-796.739000</v>
+        <v>-796.73900000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>8270.378122</v>
+        <v>8270.3781220000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.297327</v>
+        <v>2.2973270000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1567.320000</v>
+        <v>1567.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1031.710000</v>
+        <v>-1031.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>8283.393606</v>
+        <v>8283.3936059999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.300943</v>
+        <v>2.3009430000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1976.270000</v>
+        <v>1976.27</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1579.430000</v>
+        <v>-1579.43</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>8111.124106</v>
+        <v>8111.1241060000002</v>
       </c>
       <c r="B23" s="1">
-        <v>2.253090</v>
+        <v>2.2530899999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>900.980000</v>
+        <v>900.98</v>
       </c>
       <c r="D23" s="1">
-        <v>-190.043000</v>
+        <v>-190.04300000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>8121.834714</v>
+        <v>8121.8347139999996</v>
       </c>
       <c r="G23" s="1">
         <v>2.256065</v>
       </c>
       <c r="H23" s="1">
-        <v>917.985000</v>
+        <v>917.98500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.304000</v>
+        <v>-161.304</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>8132.318686</v>
+        <v>8132.3186859999996</v>
       </c>
       <c r="L23" s="1">
-        <v>2.258977</v>
+        <v>2.2589769999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>940.146000</v>
+        <v>940.14599999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.705000</v>
+        <v>-116.705</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>8142.499039</v>
+        <v>8142.4990390000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.261805</v>
+        <v>2.2618049999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>946.778000</v>
+        <v>946.77800000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.978000</v>
+        <v>-101.97799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>8153.280609</v>
+        <v>8153.2806090000004</v>
       </c>
       <c r="V23" s="1">
-        <v>2.264800</v>
+        <v>2.2648000000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.436000</v>
+        <v>953.43600000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.802000</v>
+        <v>-88.802000000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>8163.830021</v>
+        <v>8163.8300209999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.267731</v>
+        <v>2.2677309999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.838000</v>
+        <v>960.83799999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.810500</v>
+        <v>-79.810500000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>8174.593174</v>
+        <v>8174.5931739999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.270720</v>
+        <v>2.2707199999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.940000</v>
+        <v>965.94</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.453300</v>
+        <v>-79.453299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>8184.895607</v>
+        <v>8184.8956070000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.273582</v>
+        <v>2.2735820000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.953000</v>
+        <v>973.95299999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.277100</v>
+        <v>-87.277100000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>8195.461391</v>
+        <v>8195.4613910000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.276517</v>
+        <v>2.2765170000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.211000</v>
+        <v>983.21100000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.242000</v>
+        <v>-102.242</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>8206.644650</v>
+        <v>8206.6446500000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.279624</v>
+        <v>2.2796240000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.567000</v>
+        <v>994.56700000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>8217.248137</v>
+        <v>8217.2481370000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.282569</v>
+        <v>2.2825690000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.260000</v>
+        <v>-142.26</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>8227.965182</v>
+        <v>8227.9651819999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.285546</v>
+        <v>2.2855460000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.547000</v>
+        <v>-226.547</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>8238.284139</v>
+        <v>8238.2841389999994</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.288412</v>
+        <v>2.2884120000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.860000</v>
+        <v>1127.8599999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.097000</v>
+        <v>-362.09699999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>8248.851715</v>
+        <v>8248.8517150000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.291348</v>
+        <v>2.2913480000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-572.299000</v>
+        <v>-572.29899999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>8259.863396</v>
+        <v>8259.8633960000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.294406</v>
+        <v>2.2944059999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1405.340000</v>
+        <v>1405.34</v>
       </c>
       <c r="BV23" s="1">
-        <v>-796.733000</v>
+        <v>-796.73299999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>8270.804646</v>
+        <v>8270.8046460000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.297446</v>
+        <v>2.2974459999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1567.200000</v>
+        <v>1567.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1031.670000</v>
+        <v>-1031.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>8283.911958</v>
+        <v>8283.9119580000006</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.301087</v>
+        <v>2.3010869999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1978.210000</v>
+        <v>1978.21</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1578.630000</v>
+        <v>-1578.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>8111.808584</v>
+        <v>8111.8085840000003</v>
       </c>
       <c r="B24" s="1">
-        <v>2.253280</v>
+        <v>2.2532800000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>901.000000</v>
+        <v>901</v>
       </c>
       <c r="D24" s="1">
-        <v>-190.097000</v>
+        <v>-190.09700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>8122.177947</v>
+        <v>8122.1779470000001</v>
       </c>
       <c r="G24" s="1">
-        <v>2.256161</v>
+        <v>2.2561610000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>917.744000</v>
+        <v>917.74400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.340000</v>
+        <v>-161.34</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>8132.653453</v>
+        <v>8132.6534529999999</v>
       </c>
       <c r="L24" s="1">
-        <v>2.259070</v>
+        <v>2.2590699999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.106000</v>
+        <v>940.10599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.651000</v>
+        <v>-116.651</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>8142.845278</v>
+        <v>8142.8452779999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.261901</v>
+        <v>2.2619009999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.790000</v>
+        <v>946.79</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.945000</v>
+        <v>-101.94499999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>8153.925874</v>
+        <v>8153.9258739999996</v>
       </c>
       <c r="V24" s="1">
-        <v>2.264979</v>
+        <v>2.2649789999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>953.413000</v>
+        <v>953.41300000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.777100</v>
+        <v>-88.777100000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>8164.489666</v>
+        <v>8164.4896660000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.267914</v>
+        <v>2.2679140000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.789000</v>
+        <v>960.78899999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.733700</v>
+        <v>-79.733699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>8174.976580</v>
+        <v>8174.9765799999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.270827</v>
+        <v>2.2708270000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.905000</v>
+        <v>965.90499999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.463900</v>
+        <v>-79.463899999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>8185.225912</v>
+        <v>8185.2259119999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.273674</v>
+        <v>2.2736740000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.975000</v>
+        <v>973.97500000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.263900</v>
+        <v>-87.263900000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>8195.819496</v>
+        <v>8195.8194960000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.276617</v>
+        <v>2.2766169999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.189000</v>
+        <v>983.18899999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>8207.012186</v>
+        <v>8207.0121859999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.279726</v>
+        <v>2.2797260000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.583000</v>
+        <v>994.58299999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>8217.611196</v>
+        <v>8217.6111959999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.282670</v>
+        <v>2.28267</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.200000</v>
+        <v>1004.2</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.263000</v>
+        <v>-142.26300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>8228.376398</v>
+        <v>8228.3763980000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.285660</v>
+        <v>2.28566</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.524000</v>
+        <v>-226.524</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>8238.649042</v>
+        <v>8238.6490419999991</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.288514</v>
+        <v>2.2885140000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.108000</v>
+        <v>-362.108</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>8249.249724</v>
+        <v>8249.2497239999993</v>
       </c>
       <c r="BO24" s="1">
         <v>2.291458</v>
       </c>
       <c r="BP24" s="1">
-        <v>1258.210000</v>
+        <v>1258.21</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-572.247000</v>
+        <v>-572.24699999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>8260.293925</v>
+        <v>8260.2939249999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.294526</v>
+        <v>2.2945259999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1405.460000</v>
+        <v>1405.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-796.768000</v>
+        <v>-796.76800000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>8271.228229</v>
+        <v>8271.2282290000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.297563</v>
+        <v>2.2975629999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1567.170000</v>
+        <v>1567.17</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1031.780000</v>
+        <v>-1031.78</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>8284.451573</v>
+        <v>8284.4515730000003</v>
       </c>
       <c r="CD24" s="1">
         <v>2.301237</v>
       </c>
       <c r="CE24" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1578.390000</v>
+        <v>-1578.39</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>8112.149337</v>
+        <v>8112.1493369999998</v>
       </c>
       <c r="B25" s="1">
-        <v>2.253375</v>
+        <v>2.2533750000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>901.120000</v>
+        <v>901.12</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.956000</v>
+        <v>-189.95599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>8122.523657</v>
+        <v>8122.5236569999997</v>
       </c>
       <c r="G25" s="1">
-        <v>2.256257</v>
+        <v>2.2562570000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>918.354000</v>
+        <v>918.35400000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.545000</v>
+        <v>-161.54499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>8133.037889</v>
+        <v>8133.0378890000002</v>
       </c>
       <c r="L25" s="1">
-        <v>2.259177</v>
+        <v>2.2591770000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>940.237000</v>
+        <v>940.23699999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.737000</v>
+        <v>-116.73699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>8143.497531</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.262083</v>
+        <v>2.2620830000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>946.816000</v>
+        <v>946.81600000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.955000</v>
+        <v>-101.955</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>8154.310272</v>
+        <v>8154.3102719999997</v>
       </c>
       <c r="V25" s="1">
-        <v>2.265086</v>
+        <v>2.2650860000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>953.434000</v>
+        <v>953.43399999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.791700</v>
+        <v>-88.791700000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>8164.874590</v>
+        <v>8164.8745900000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.268021</v>
+        <v>2.2680210000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.812000</v>
+        <v>960.81200000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.699800</v>
+        <v>-79.699799999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>8175.318821</v>
+        <v>8175.3188209999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.270922</v>
+        <v>2.2709220000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.907000</v>
+        <v>965.90700000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.468200</v>
+        <v>-79.468199999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>8185.575094</v>
+        <v>8185.5750939999998</v>
       </c>
       <c r="AK25" s="1">
         <v>2.273771</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.958000</v>
+        <v>973.95799999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.283300</v>
+        <v>-87.283299999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>8196.178604</v>
+        <v>8196.1786040000006</v>
       </c>
       <c r="AP25" s="1">
         <v>2.276716</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.168000</v>
+        <v>983.16800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.262000</v>
+        <v>-102.262</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>8207.423402</v>
+        <v>8207.4234020000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.279840</v>
+        <v>2.2798400000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.567000</v>
+        <v>994.56700000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>8218.039740</v>
+        <v>8218.0397400000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.282789</v>
+        <v>2.2827890000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.180000</v>
+        <v>1004.18</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.266000</v>
+        <v>-142.26599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>8228.686369</v>
+        <v>8228.6863689999991</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.285746</v>
+        <v>2.2857460000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.533000</v>
+        <v>-226.53299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>8239.023983</v>
+        <v>8239.0239829999991</v>
       </c>
       <c r="BJ25" s="1">
         <v>2.288618</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.850000</v>
+        <v>1127.8499999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.103000</v>
+        <v>-362.10300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>8249.671106</v>
+        <v>8249.6711059999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.291575</v>
+        <v>2.2915749999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1258.240000</v>
+        <v>1258.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-572.275000</v>
+        <v>-572.27499999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>8260.712580</v>
+        <v>8260.7125799999994</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.294642</v>
+        <v>2.2946420000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1405.500000</v>
+        <v>1405.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-796.934000</v>
+        <v>-796.93399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>8271.648837</v>
+        <v>8271.6488370000006</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.297680</v>
+        <v>2.2976800000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1567.160000</v>
+        <v>1567.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1031.690000</v>
+        <v>-1031.69</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>8284.990227</v>
+        <v>8284.9902270000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.301386</v>
+        <v>2.3013859999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1977.490000</v>
+        <v>1977.49</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1579.630000</v>
+        <v>-1579.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>8112.491079</v>
+        <v>8112.4910790000004</v>
       </c>
       <c r="B26" s="1">
-        <v>2.253470</v>
+        <v>2.2534700000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>901.255000</v>
+        <v>901.255</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.988000</v>
+        <v>-189.988</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>8123.161514</v>
+        <v>8123.1615140000004</v>
       </c>
       <c r="G26" s="1">
-        <v>2.256434</v>
+        <v>2.2564340000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.865000</v>
+        <v>917.86500000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.573000</v>
+        <v>-161.57300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>8133.498635</v>
+        <v>8133.4986349999999</v>
       </c>
       <c r="L26" s="1">
-        <v>2.259305</v>
+        <v>2.2593049999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>940.225000</v>
+        <v>940.22500000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.745000</v>
+        <v>-116.745</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>8143.903214</v>
+        <v>8143.9032139999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.262195</v>
+        <v>2.2621950000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>946.833000</v>
+        <v>946.83299999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>8154.653999</v>
+        <v>8154.6539990000001</v>
       </c>
       <c r="V26" s="1">
-        <v>2.265182</v>
+        <v>2.2651819999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>953.385000</v>
+        <v>953.38499999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.850200</v>
+        <v>-88.850200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>8165.225729</v>
+        <v>8165.2257289999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.268118</v>
+        <v>2.2681179999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.744000</v>
+        <v>960.74400000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.695000</v>
+        <v>-79.694999999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>8175.664035</v>
+        <v>8175.6640349999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.271018</v>
+        <v>2.2710180000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.910000</v>
+        <v>965.91</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.478700</v>
+        <v>-79.478700000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>8185.988261</v>
+        <v>8185.9882610000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.273886</v>
+        <v>2.2738860000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.921000</v>
+        <v>973.92100000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.288200</v>
+        <v>-87.288200000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>8196.595704</v>
+        <v>8196.5957039999994</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.276832</v>
+        <v>2.2768320000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.199000</v>
+        <v>983.19899999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>8207.740809</v>
+        <v>8207.7408090000008</v>
       </c>
       <c r="AU26" s="1">
         <v>2.279928</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.594000</v>
+        <v>994.59400000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.661000</v>
+        <v>-123.661</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>8218.323984</v>
+        <v>8218.3239840000006</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.282868</v>
+        <v>2.2828680000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.190000</v>
+        <v>1004.19</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.267000</v>
+        <v>-142.267</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>8229.047452</v>
+        <v>8229.0474520000007</v>
       </c>
       <c r="BE26" s="1">
         <v>2.285847</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.554000</v>
+        <v>-226.554</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>8239.404448</v>
+        <v>8239.4044479999993</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.288723</v>
+        <v>2.2887230000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1127.870000</v>
+        <v>1127.8699999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.098000</v>
+        <v>-362.09800000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>8250.066272</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.291685</v>
+        <v>2.2916850000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-572.270000</v>
+        <v>-572.27</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>8261.134644</v>
+        <v>8261.1346439999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.294760</v>
+        <v>2.2947600000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="BV26" s="1">
-        <v>-796.878000</v>
+        <v>-796.87800000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>8272.105653</v>
+        <v>8272.1056530000005</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.297807</v>
+        <v>2.2978070000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1567.250000</v>
+        <v>1567.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1031.640000</v>
+        <v>-1031.6400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>8285.533874</v>
+        <v>8285.5338740000007</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.301537</v>
+        <v>2.3015370000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1977.820000</v>
+        <v>1977.82</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1577.850000</v>
+        <v>-1577.85</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>